--- a/Modelos/Tentativa 2/Resultados.xlsx
+++ b/Modelos/Tentativa 2/Resultados.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beatr\Documents\GitHub\SAFENET-Bea\Modelos\Modelo 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beatr\Documents\GitHub\SAFENET-Bea\Modelos\Tentativa 2\Novo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE3BD164-1287-41E4-A3FA-301FC779FBE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{917CC911-8533-4192-8E68-645834513B65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -415,12 +415,12 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:E11"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.90625" bestFit="1" customWidth="1"/>
     <col min="2" max="5" width="11.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -446,16 +446,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <v>33.319995880126953</v>
+        <v>36.205646514892578</v>
       </c>
       <c r="C2" s="2">
-        <v>0.55989938974380493</v>
+        <v>0.55041611194610596</v>
       </c>
       <c r="D2" s="2">
-        <v>34.892715454101563</v>
+        <v>36.072067260742188</v>
       </c>
       <c r="E2" s="2">
-        <v>0.42480620741844177</v>
+        <v>0.51627904176712036</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -463,16 +463,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <v>26.6608772277832</v>
+        <v>28.979928970336911</v>
       </c>
       <c r="C3" s="2">
-        <v>0.61718600988388062</v>
+        <v>0.60131603479385376</v>
       </c>
       <c r="D3" s="2">
-        <v>41.769901275634773</v>
+        <v>42.554328918457031</v>
       </c>
       <c r="E3" s="2">
-        <v>0.48527130484580988</v>
+        <v>0.53178292512893677</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
@@ -480,16 +480,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <v>31.084596633911129</v>
+        <v>30.096979141235352</v>
       </c>
       <c r="C4" s="2">
-        <v>0.62589508295059204</v>
+        <v>0.61873430013656616</v>
       </c>
       <c r="D4" s="2">
-        <v>36.538497924804688</v>
+        <v>37.691333770751953</v>
       </c>
       <c r="E4" s="2">
-        <v>0.57364338636398315</v>
+        <v>0.67751938104629517</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
@@ -497,16 +497,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="2">
-        <v>27.88833045959473</v>
+        <v>27.72745513916016</v>
       </c>
       <c r="C5" s="2">
-        <v>0.64099091291427612</v>
+        <v>0.65144187211990356</v>
       </c>
       <c r="D5" s="2">
-        <v>40.952434539794922</v>
+        <v>37.108535766601563</v>
       </c>
       <c r="E5" s="2">
-        <v>0.56744188070297241</v>
+        <v>0.53953486680984497</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
@@ -514,16 +514,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="2">
-        <v>26.79658126831055</v>
+        <v>21.0712776184082</v>
       </c>
       <c r="C6" s="2">
-        <v>0.65821558237075806</v>
+        <v>0.67524677515029907</v>
       </c>
       <c r="D6" s="2">
-        <v>42.560829162597663</v>
+        <v>29.268831253051761</v>
       </c>
       <c r="E6" s="2">
-        <v>0.64496123790740967</v>
+        <v>0.6418604850769043</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
@@ -531,16 +531,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="2">
-        <v>26.7509651184082</v>
+        <v>19.589170455932621</v>
       </c>
       <c r="C7" s="2">
-        <v>0.66537642478942871</v>
+        <v>0.68724596500396729</v>
       </c>
       <c r="D7" s="2">
-        <v>32.603462219238281</v>
+        <v>31.538896560668949</v>
       </c>
       <c r="E7" s="2">
-        <v>0.71317827701568604</v>
+        <v>0.60775196552276611</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -548,16 +548,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="2">
-        <v>20.308420181274411</v>
+        <v>18.546152114868161</v>
       </c>
       <c r="C8" s="2">
-        <v>0.68821364641189575</v>
+        <v>0.69750338792800903</v>
       </c>
       <c r="D8" s="2">
-        <v>33.899269104003913</v>
+        <v>32.7884521484375</v>
       </c>
       <c r="E8" s="2">
-        <v>0.68682169914245605</v>
+        <v>0.64806199073791504</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -565,16 +565,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="2">
-        <v>20.916070938110352</v>
+        <v>18.878643035888668</v>
       </c>
       <c r="C9" s="2">
-        <v>0.70079350471496582</v>
+        <v>0.70040643215179443</v>
       </c>
       <c r="D9" s="2">
-        <v>32.773162841796882</v>
+        <v>31.060272216796879</v>
       </c>
       <c r="E9" s="2">
-        <v>0.70077520608901978</v>
+        <v>0.68372094631195068</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -582,16 +582,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="2">
-        <v>21.630636215209961</v>
+        <v>20.869783401489261</v>
       </c>
       <c r="C10" s="2">
-        <v>0.70389008522033691</v>
+        <v>0.6897619366645813</v>
       </c>
       <c r="D10" s="2">
-        <v>38.997692108154297</v>
+        <v>38.334941864013672</v>
       </c>
       <c r="E10" s="2">
-        <v>0.71007752418518066</v>
+        <v>0.68062013387680054</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
@@ -599,16 +599,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="2">
-        <v>20.777568817138668</v>
+        <v>20.89157676696777</v>
       </c>
       <c r="C11" s="2">
-        <v>0.70485776662826538</v>
+        <v>0.70098704099655151</v>
       </c>
       <c r="D11" s="2">
-        <v>33.555824279785163</v>
+        <v>35.770633697509773</v>
       </c>
       <c r="E11" s="2">
-        <v>0.68682169914245605</v>
+        <v>0.67596900463104248</v>
       </c>
     </row>
   </sheetData>
